--- a/Tutorials (10%)/Tutorial Session Arrangement.xlsx
+++ b/Tutorials (10%)/Tutorial Session Arrangement.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="438">
   <si>
     <t>Tutorial Session Arrangement</t>
   </si>
@@ -56,24 +56,24 @@
     <t>S01</t>
   </si>
   <si>
+    <t>Hu</t>
+  </si>
+  <si>
     <t>Jeoi Hin</t>
   </si>
   <si>
-    <t>Hu</t>
-  </si>
-  <si>
     <t>3036392825</t>
   </si>
   <si>
     <t>u3639282@connect.hku.hk</t>
   </si>
   <si>
+    <t>Huang</t>
+  </si>
+  <si>
     <t>Tianyi</t>
   </si>
   <si>
-    <t>Huang</t>
-  </si>
-  <si>
     <t>3036456712</t>
   </si>
   <si>
@@ -89,48 +89,87 @@
     <t>huangyr6@connect.hku.hk</t>
   </si>
   <si>
+    <t>Jiang</t>
+  </si>
+  <si>
     <t>Xiyan</t>
   </si>
   <si>
-    <t>Jiang</t>
-  </si>
-  <si>
     <t>3036128092</t>
   </si>
   <si>
     <t>jiang931@connect.hku.hk</t>
   </si>
   <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>Mei Yin</t>
+  </si>
+  <si>
+    <t>3036233471</t>
+  </si>
+  <si>
+    <t>laymein@connect.hku.hk</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>Wei Sin</t>
+  </si>
+  <si>
+    <t>3036183406</t>
+  </si>
+  <si>
+    <t>weisin@connect.hku.hk</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Hoi Fai</t>
+  </si>
+  <si>
+    <t>3036205797</t>
+  </si>
+  <si>
+    <t>u3620579@connect.hku.hk</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
     <t>Jingran</t>
   </si>
   <si>
-    <t>Lin</t>
-  </si>
-  <si>
     <t>3036128743</t>
   </si>
   <si>
     <t>jenny104@connect.hku.hk</t>
   </si>
   <si>
+    <t>Lo</t>
+  </si>
+  <si>
     <t>Tsz Fung</t>
   </si>
   <si>
-    <t>Lo</t>
-  </si>
-  <si>
     <t>3036238108</t>
   </si>
   <si>
     <t>jamesltf@connect.hku.hk</t>
   </si>
   <si>
+    <t>Zhu</t>
+  </si>
+  <si>
     <t>Chit Wai</t>
   </si>
   <si>
-    <t>Zhu</t>
-  </si>
-  <si>
     <t>3036390827</t>
   </si>
   <si>
@@ -149,36 +188,36 @@
     <t>S02</t>
   </si>
   <si>
+    <t>Cheung</t>
+  </si>
+  <si>
     <t>Chun Yin</t>
   </si>
   <si>
-    <t>Cheung</t>
-  </si>
-  <si>
     <t>3036260709</t>
   </si>
   <si>
     <t>yinson@connect.hku.hk</t>
   </si>
   <si>
+    <t>Luk</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
-    <t>Luk</t>
-  </si>
-  <si>
     <t>3036080240</t>
   </si>
   <si>
     <t>matthew6@connect.hku.hk</t>
   </si>
   <si>
+    <t>Wong</t>
+  </si>
+  <si>
     <t>Chun Ho</t>
   </si>
   <si>
-    <t>Wong</t>
-  </si>
-  <si>
     <t>3036140739</t>
   </si>
   <si>
@@ -194,24 +233,24 @@
     <t>u3640173@connect.hku.hk</t>
   </si>
   <si>
+    <t>Yao</t>
+  </si>
+  <si>
     <t>Tianle</t>
   </si>
   <si>
-    <t>Yao</t>
-  </si>
-  <si>
     <t>3036253691</t>
   </si>
   <si>
     <t>u3625369@connect.hku.hk</t>
   </si>
   <si>
+    <t>Yuen</t>
+  </si>
+  <si>
     <t>Chin Hang</t>
   </si>
   <si>
-    <t>Yuen</t>
-  </si>
-  <si>
     <t>3036184541</t>
   </si>
   <si>
@@ -221,69 +260,66 @@
     <t>S03</t>
   </si>
   <si>
+    <t>Chan</t>
+  </si>
+  <si>
     <t>Hoi Chun</t>
   </si>
   <si>
-    <t>Chan</t>
-  </si>
-  <si>
     <t>3036140167</t>
   </si>
   <si>
     <t>u3614016@connect.hku.hk</t>
   </si>
   <si>
+    <t>Cheng</t>
+  </si>
+  <si>
     <t>Ka Ki Sophia</t>
   </si>
   <si>
-    <t>Cheng</t>
-  </si>
-  <si>
     <t>3036225010</t>
   </si>
   <si>
     <t>u3622501@connect.hku.hk</t>
   </si>
   <si>
+    <t>Chung</t>
+  </si>
+  <si>
     <t>Nerissa</t>
   </si>
   <si>
-    <t>Chung</t>
-  </si>
-  <si>
     <t>3036235235</t>
   </si>
   <si>
     <t>nerissac@connect.hku.hk</t>
   </si>
   <si>
+    <t>Ho</t>
+  </si>
+  <si>
     <t>Kin Kwan</t>
   </si>
   <si>
-    <t>Ho</t>
-  </si>
-  <si>
     <t>3036193932</t>
   </si>
   <si>
     <t>u3619393@connect.hku.hk</t>
   </si>
   <si>
+    <t>Lai</t>
+  </si>
+  <si>
     <t>Ching Lok</t>
   </si>
   <si>
-    <t>Lai</t>
-  </si>
-  <si>
     <t>3036240175</t>
   </si>
   <si>
     <t>u3624017@connect.hku.hk</t>
   </si>
   <si>
-    <t>Adjusted</t>
-  </si>
-  <si>
     <t>Yat Kit</t>
   </si>
   <si>
@@ -293,48 +329,48 @@
     <t>u3614017@connect.hku.hk</t>
   </si>
   <si>
+    <t>Liu</t>
+  </si>
+  <si>
     <t>Jing Zhong</t>
   </si>
   <si>
-    <t>Liu</t>
-  </si>
-  <si>
     <t>3036393984</t>
   </si>
   <si>
     <t>u3639398@connect.hku.hk</t>
   </si>
   <si>
+    <t>Ng</t>
+  </si>
+  <si>
     <t>Cheuk Tung</t>
   </si>
   <si>
-    <t>Ng</t>
-  </si>
-  <si>
     <t>3036388800</t>
   </si>
   <si>
     <t>u3638880@connect.hku.hk</t>
   </si>
   <si>
+    <t>Shu</t>
+  </si>
+  <si>
     <t>Ngo Ching</t>
   </si>
   <si>
-    <t>Shu</t>
-  </si>
-  <si>
     <t>3036221002</t>
   </si>
   <si>
     <t>ching927@connect.hku.hk</t>
   </si>
   <si>
+    <t>Wan</t>
+  </si>
+  <si>
     <t>Ching Wa</t>
   </si>
   <si>
-    <t>Wan</t>
-  </si>
-  <si>
     <t>3036408636</t>
   </si>
   <si>
@@ -380,60 +416,60 @@
     <t>S04</t>
   </si>
   <si>
+    <t>Ahn</t>
+  </si>
+  <si>
     <t>Jiho</t>
   </si>
   <si>
-    <t>Ahn</t>
-  </si>
-  <si>
     <t>3036278964</t>
   </si>
   <si>
     <t>u3627896@connect.hku.hk</t>
   </si>
   <si>
+    <t>Chen</t>
+  </si>
+  <si>
     <t>Jiaqi</t>
   </si>
   <si>
-    <t>Chen</t>
-  </si>
-  <si>
     <t>3035771139</t>
   </si>
   <si>
     <t>rosa18@connect.hku.hk</t>
   </si>
   <si>
+    <t>Chin</t>
+  </si>
+  <si>
     <t>Jamie Angelina</t>
   </si>
   <si>
-    <t>Chin</t>
-  </si>
-  <si>
     <t>3036368367</t>
   </si>
   <si>
     <t>u3636836@connect.hku.hk</t>
   </si>
   <si>
+    <t>Fok</t>
+  </si>
+  <si>
     <t>Ching Yin</t>
   </si>
   <si>
-    <t>Fok</t>
-  </si>
-  <si>
     <t>3036222692</t>
   </si>
   <si>
     <t>u3622269@connect.hku.hk</t>
   </si>
   <si>
+    <t>Kwok</t>
+  </si>
+  <si>
     <t>King Him</t>
   </si>
   <si>
-    <t>Kwok</t>
-  </si>
-  <si>
     <t>3036220773</t>
   </si>
   <si>
@@ -443,45 +479,54 @@
     <t>Ka Wai</t>
   </si>
   <si>
-    <t>Lam</t>
-  </si>
-  <si>
     <t>3036336041</t>
   </si>
   <si>
     <t>u3633604@connect.hku.hk</t>
   </si>
   <si>
+    <t>Shi</t>
+  </si>
+  <si>
     <t>Peijie</t>
   </si>
   <si>
-    <t>Shi</t>
-  </si>
-  <si>
     <t>3036457144</t>
   </si>
   <si>
     <t>u3645714@connect.hku.hk</t>
   </si>
   <si>
+    <t>Tong</t>
+  </si>
+  <si>
+    <t>Chun Him</t>
+  </si>
+  <si>
+    <t>3036407199</t>
+  </si>
+  <si>
+    <t>torries@connect.hku.hk</t>
+  </si>
+  <si>
+    <t>Tse</t>
+  </si>
+  <si>
     <t>Chak Lun</t>
   </si>
   <si>
-    <t>Tse</t>
-  </si>
-  <si>
     <t>3035937410</t>
   </si>
   <si>
     <t>u3593741@connect.hku.hk</t>
   </si>
   <si>
+    <t>Tso</t>
+  </si>
+  <si>
     <t>Kok Ching</t>
   </si>
   <si>
-    <t>Tso</t>
-  </si>
-  <si>
     <t>3036453069</t>
   </si>
   <si>
@@ -545,12 +590,12 @@
     <t>jimch@connect.hku.hk</t>
   </si>
   <si>
+    <t>Gorbaneva</t>
+  </si>
+  <si>
     <t>Alyssa</t>
   </si>
   <si>
-    <t>Gorbaneva</t>
-  </si>
-  <si>
     <t>3033121108</t>
   </si>
   <si>
@@ -566,24 +611,36 @@
     <t>u3584541@connect.hku.hk</t>
   </si>
   <si>
+    <t>Hui</t>
+  </si>
+  <si>
     <t>Tsun Ka</t>
   </si>
   <si>
-    <t>Hui</t>
-  </si>
-  <si>
     <t>3036225424</t>
   </si>
   <si>
     <t>ludwig23@connect.hku.hk</t>
   </si>
   <si>
+    <t>Ka Hin</t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>3036327507</t>
+  </si>
+  <si>
+    <t>ykhin@connect.hku.hk</t>
+  </si>
+  <si>
+    <t>Leung</t>
+  </si>
+  <si>
     <t>Lok Yiu</t>
   </si>
   <si>
-    <t>Leung</t>
-  </si>
-  <si>
     <t>3036234308</t>
   </si>
   <si>
@@ -599,24 +656,24 @@
     <t>anna2006@connect.hku.hk</t>
   </si>
   <si>
+    <t>Xu</t>
+  </si>
+  <si>
     <t>Leqi</t>
   </si>
   <si>
-    <t>Xu</t>
-  </si>
-  <si>
     <t>3036290417</t>
   </si>
   <si>
     <t>u3629041@connect.hku.hk</t>
   </si>
   <si>
+    <t>Zeng</t>
+  </si>
+  <si>
     <t>Zimo</t>
   </si>
   <si>
-    <t>Zeng</t>
-  </si>
-  <si>
     <t>3036292300</t>
   </si>
   <si>
@@ -626,12 +683,12 @@
     <t>S06</t>
   </si>
   <si>
+    <t>Bernsteiner</t>
+  </si>
+  <si>
     <t>Jonathan</t>
   </si>
   <si>
-    <t>Bernsteiner</t>
-  </si>
-  <si>
     <t>3036464276</t>
   </si>
   <si>
@@ -653,12 +710,12 @@
     <t>henri311@connect.hku.hk</t>
   </si>
   <si>
+    <t>He</t>
+  </si>
+  <si>
     <t>Anqi</t>
   </si>
   <si>
-    <t>He</t>
-  </si>
-  <si>
     <t>3036290340</t>
   </si>
   <si>
@@ -683,12 +740,12 @@
     <t>u3640726@connect.hku.hk</t>
   </si>
   <si>
+    <t>Kwan</t>
+  </si>
+  <si>
     <t>Ka Hang</t>
   </si>
   <si>
-    <t>Kwan</t>
-  </si>
-  <si>
     <t>3036400397</t>
   </si>
   <si>
@@ -698,21 +755,18 @@
     <t>Wai Yee</t>
   </si>
   <si>
-    <t>Lee</t>
-  </si>
-  <si>
     <t>3036405024</t>
   </si>
   <si>
     <t>rinne@connect.hku.hk</t>
   </si>
   <si>
+    <t>Lu</t>
+  </si>
+  <si>
     <t>William Chun Wa</t>
   </si>
   <si>
-    <t>Lu</t>
-  </si>
-  <si>
     <t>3036266026</t>
   </si>
   <si>
@@ -746,24 +800,24 @@
     <t>u3629253@connect.hku.hk</t>
   </si>
   <si>
+    <t>Zhang</t>
+  </si>
+  <si>
     <t>Jiahao</t>
   </si>
   <si>
-    <t>Zhang</t>
-  </si>
-  <si>
     <t>3036291679</t>
   </si>
   <si>
     <t>zzhtx@connect.hku.hk</t>
   </si>
   <si>
+    <t>Zhao</t>
+  </si>
+  <si>
     <t>Xingyu</t>
   </si>
   <si>
-    <t>Zhao</t>
-  </si>
-  <si>
     <t>3036291112</t>
   </si>
   <si>
@@ -782,120 +836,120 @@
     <t>cc1028@connect.hku.hk</t>
   </si>
   <si>
+    <t>Ching</t>
+  </si>
+  <si>
     <t>Chloe Ho Yi</t>
   </si>
   <si>
-    <t>Ching</t>
-  </si>
-  <si>
     <t>3035951636</t>
   </si>
   <si>
     <t>chloehy@connect.hku.hk</t>
   </si>
   <si>
+    <t>Dai</t>
+  </si>
+  <si>
     <t>Yuze</t>
   </si>
   <si>
-    <t>Dai</t>
-  </si>
-  <si>
     <t>3036319366</t>
   </si>
   <si>
     <t>u3631936@connect.hku.hk</t>
   </si>
   <si>
+    <t>Deng</t>
+  </si>
+  <si>
     <t>Yuet</t>
   </si>
   <si>
-    <t>Deng</t>
-  </si>
-  <si>
     <t>3036403337</t>
   </si>
   <si>
     <t>u3640333@connect.hku.hk</t>
   </si>
   <si>
+    <t>Fu</t>
+  </si>
+  <si>
     <t>Jiajie</t>
   </si>
   <si>
-    <t>Fu</t>
-  </si>
-  <si>
     <t>3036272142</t>
   </si>
   <si>
     <t>u3627214@connect.hku.hk</t>
   </si>
   <si>
+    <t>Gao</t>
+  </si>
+  <si>
     <t>Chenkai</t>
   </si>
   <si>
-    <t>Gao</t>
-  </si>
-  <si>
     <t>3036445452</t>
   </si>
   <si>
     <t>u3644545@connect.hku.hk</t>
   </si>
   <si>
+    <t>Hou</t>
+  </si>
+  <si>
     <t>Shenyi</t>
   </si>
   <si>
-    <t>Hou</t>
-  </si>
-  <si>
     <t>3033109344</t>
   </si>
   <si>
     <t>olivia82@connect.hku.hk</t>
   </si>
   <si>
+    <t>Judel</t>
+  </si>
+  <si>
     <t>Antoine</t>
   </si>
   <si>
-    <t>Judel</t>
-  </si>
-  <si>
     <t>3036465050</t>
   </si>
   <si>
     <t>u3646505@connect.hku.hk</t>
   </si>
   <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t>Linjie</t>
   </si>
   <si>
-    <t>Lou</t>
-  </si>
-  <si>
     <t>3036445218</t>
   </si>
   <si>
     <t>u3644521@connect.hku.hk</t>
   </si>
   <si>
+    <t>Qi</t>
+  </si>
+  <si>
     <t>Ziyan</t>
   </si>
   <si>
-    <t>Qi</t>
-  </si>
-  <si>
     <t>3036326486</t>
   </si>
   <si>
     <t>u3632648@connect.hku.hk</t>
   </si>
   <si>
+    <t>Qiu</t>
+  </si>
+  <si>
     <t>Shu Tung</t>
   </si>
   <si>
-    <t>Qiu</t>
-  </si>
-  <si>
     <t>3036405165</t>
   </si>
   <si>
@@ -932,12 +986,12 @@
     <t>u3631980@connect.hku.hk</t>
   </si>
   <si>
+    <t>Juty-Tabram</t>
+  </si>
+  <si>
     <t>Matilda Rani</t>
   </si>
   <si>
-    <t>Juty-Tabram</t>
-  </si>
-  <si>
     <t>3036298861</t>
   </si>
   <si>
@@ -953,24 +1007,36 @@
     <t>u3638963@connect.hku.hk</t>
   </si>
   <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t>Junyi</t>
+  </si>
+  <si>
+    <t>3036128963</t>
+  </si>
+  <si>
+    <t>u3612896@connect.hku.hk</t>
+  </si>
+  <si>
+    <t>Lui</t>
+  </si>
+  <si>
     <t>Ka Yui Edgar</t>
   </si>
   <si>
-    <t>Lui</t>
-  </si>
-  <si>
     <t>3036234310</t>
   </si>
   <si>
     <t>elky2205@connect.hku.hk</t>
   </si>
   <si>
+    <t>Ma</t>
+  </si>
+  <si>
     <t>Ching Yan</t>
   </si>
   <si>
-    <t>Ma</t>
-  </si>
-  <si>
     <t>3036237439</t>
   </si>
   <si>
@@ -986,12 +1052,12 @@
     <t>u3632490@connect.hku.hk</t>
   </si>
   <si>
+    <t>Uy</t>
+  </si>
+  <si>
     <t>Annika Jillian</t>
   </si>
   <si>
-    <t>Uy</t>
-  </si>
-  <si>
     <t>3036321369</t>
   </si>
   <si>
@@ -1010,12 +1076,12 @@
     <t>xzdlkl66@connect.hku.hk</t>
   </si>
   <si>
+    <t>Han</t>
+  </si>
+  <si>
     <t>Juntao</t>
   </si>
   <si>
-    <t>Han</t>
-  </si>
-  <si>
     <t>3036322014</t>
   </si>
   <si>
@@ -1031,12 +1097,12 @@
     <t>u3619148@connect.hku.hk</t>
   </si>
   <si>
+    <t>Kong</t>
+  </si>
+  <si>
     <t>Deyi</t>
   </si>
   <si>
-    <t>Kong</t>
-  </si>
-  <si>
     <t>3036279009</t>
   </si>
   <si>
@@ -1061,60 +1127,60 @@
     <t>u3583497@connect.hku.hk</t>
   </si>
   <si>
+    <t>Perera</t>
+  </si>
+  <si>
     <t>Cleo Gavriel</t>
   </si>
   <si>
-    <t>Perera</t>
-  </si>
-  <si>
     <t>3036391833</t>
   </si>
   <si>
     <t>u3639183@connect.hku.hk</t>
   </si>
   <si>
+    <t>Tsang</t>
+  </si>
+  <si>
     <t>Yuet Yi</t>
   </si>
   <si>
-    <t>Tsang</t>
-  </si>
-  <si>
     <t>3036237295</t>
   </si>
   <si>
     <t>katy121@connect.hku.hk</t>
   </si>
   <si>
+    <t>Wang</t>
+  </si>
+  <si>
     <t>Jiaxun</t>
   </si>
   <si>
-    <t>Wang</t>
-  </si>
-  <si>
     <t>3036364452</t>
   </si>
   <si>
     <t>u3636445@connect.hku.hk</t>
   </si>
   <si>
+    <t>Ye</t>
+  </si>
+  <si>
     <t>Wentai</t>
   </si>
   <si>
-    <t>Ye</t>
-  </si>
-  <si>
     <t>3035993751</t>
   </si>
   <si>
     <t>u3599375@connect.hku.hk</t>
   </si>
   <si>
+    <t>Yi</t>
+  </si>
+  <si>
     <t>Chaoran</t>
   </si>
   <si>
-    <t>Yi</t>
-  </si>
-  <si>
     <t>3036290376</t>
   </si>
   <si>
@@ -1124,9 +1190,6 @@
     <t>Ruicheng</t>
   </si>
   <si>
-    <t>Yu</t>
-  </si>
-  <si>
     <t>3036406183</t>
   </si>
   <si>
@@ -1145,12 +1208,12 @@
     <t>S10</t>
   </si>
   <si>
+    <t>Chaabane</t>
+  </si>
+  <si>
     <t>Adam Andrea</t>
   </si>
   <si>
-    <t>Chaabane</t>
-  </si>
-  <si>
     <t>3036057968</t>
   </si>
   <si>
@@ -1166,36 +1229,36 @@
     <t>u3638799@connect.hku.hk</t>
   </si>
   <si>
+    <t>Cui</t>
+  </si>
+  <si>
     <t>Tak Chiu</t>
   </si>
   <si>
-    <t>Cui</t>
-  </si>
-  <si>
     <t>3036395724</t>
   </si>
   <si>
     <t>takchiu@connect.hku.hk</t>
   </si>
   <si>
+    <t>Hong</t>
+  </si>
+  <si>
     <t>Seohyeon</t>
   </si>
   <si>
-    <t>Hong</t>
-  </si>
-  <si>
     <t>3036241155</t>
   </si>
   <si>
     <t>u3624115@connect.hku.hk</t>
   </si>
   <si>
+    <t>Jin</t>
+  </si>
+  <si>
     <t>Yuanzhuo</t>
   </si>
   <si>
-    <t>Jin</t>
-  </si>
-  <si>
     <t>3036291564</t>
   </si>
   <si>
@@ -1220,24 +1283,24 @@
     <t>sklin@connect.hku.hk</t>
   </si>
   <si>
+    <t>Luo</t>
+  </si>
+  <si>
     <t>King Fung Romeo</t>
   </si>
   <si>
-    <t>Luo</t>
-  </si>
-  <si>
     <t>3036457405</t>
   </si>
   <si>
     <t>romeoluo@connect.hku.hk</t>
   </si>
   <si>
+    <t>Pang</t>
+  </si>
+  <si>
     <t>Chi Chung</t>
   </si>
   <si>
-    <t>Pang</t>
-  </si>
-  <si>
     <t>3036324191</t>
   </si>
   <si>
@@ -1253,10 +1316,10 @@
     <t>dt0429@connect.hku.hk</t>
   </si>
   <si>
+    <t>Tung</t>
+  </si>
+  <si>
     <t>Yat Hong</t>
-  </si>
-  <si>
-    <t>Tung</t>
   </si>
   <si>
     <t>3036403117</t>
@@ -1319,7 +1382,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -1953,7 +2016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1978,10 +2041,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2295,7 +2355,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -2304,12 +2364,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.9090909090909" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7272727272727" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4545454545455" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.63636363636364" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81818181818182" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.27272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" spans="1:7">
@@ -2398,10 +2458,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -2431,7 +2491,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" customFormat="1" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2448,109 +2508,115 @@
         <v>27</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>49</v>
@@ -2566,67 +2632,67 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>65</v>
@@ -2642,7 +2708,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>68</v>
@@ -2661,7 +2727,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>72</v>
@@ -2680,107 +2746,107 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>97</v>
@@ -2796,7 +2862,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>100</v>
@@ -2815,108 +2881,108 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>123</v>
@@ -2929,26 +2995,26 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>129</v>
@@ -2967,7 +3033,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>133</v>
@@ -2986,7 +3052,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>137</v>
@@ -3000,12 +3066,12 @@
       <c r="E37" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>141</v>
@@ -3019,12 +3085,12 @@
       <c r="E38" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>145</v>
@@ -3038,37 +3104,37 @@
       <c r="E39" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>154</v>
@@ -3076,167 +3142,169 @@
       <c r="E41" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>184</v>
@@ -3247,34 +3315,34 @@
       <c r="E50" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>191</v>
@@ -3285,12 +3353,12 @@
       <c r="E52" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>194</v>
@@ -3304,37 +3372,39 @@
       <c r="E53" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="5" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>204</v>
@@ -3342,248 +3412,246 @@
       <c r="E55" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="5" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="5" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+        <v>212</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+        <v>224</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+        <v>230</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+        <v>236</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+        <v>240</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>249</v>
@@ -3591,246 +3659,248 @@
       <c r="E68" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="5" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="5" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="5" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="5" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="5" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>299</v>
@@ -3838,12 +3908,12 @@
       <c r="E81" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="5" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>301</v>
@@ -3857,34 +3927,34 @@
       <c r="E82" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="5" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+        <v>308</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="5" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>309</v>
@@ -3895,15 +3965,15 @@
       <c r="E84" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="5" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>313</v>
@@ -3914,18 +3984,18 @@
       <c r="E85" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="5" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>317</v>
@@ -3933,12 +4003,12 @@
       <c r="E86" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>319</v>
@@ -3952,56 +4022,58 @@
       <c r="E87" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C88" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>332</v>
@@ -4009,12 +4081,12 @@
       <c r="E90" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>334</v>
@@ -4028,18 +4100,18 @@
       <c r="E91" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>339</v>
@@ -4047,72 +4119,72 @@
       <c r="E92" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>341</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+        <v>344</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+        <v>348</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+        <v>352</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>353</v>
@@ -4123,12 +4195,12 @@
       <c r="E96" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>356</v>
@@ -4142,189 +4214,189 @@
       <c r="E97" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="5" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>395</v>
@@ -4332,56 +4404,56 @@
       <c r="E107" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="5" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="5" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="5" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>406</v>
@@ -4389,12 +4461,12 @@
       <c r="E110" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="5" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>408</v>
@@ -4408,53 +4480,167 @@
       <c r="E111" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="5" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+        <v>414</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="5" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+        <v>417</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A4:G113">
-    <sortCondition ref="A4:A113"/>
-    <sortCondition ref="C4:C113"/>
-    <sortCondition ref="B4:B113"/>
-    <sortCondition ref="D4:D113"/>
+  <sortState ref="A4:G119">
+    <sortCondition ref="A4:A119"/>
+    <sortCondition ref="B4:B119"/>
+    <sortCondition ref="C4:C119"/>
+    <sortCondition ref="D4:D119"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
